--- a/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-3.098986995837799</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.237730643383876</v>
+        <v>-2.237730643383877</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.396481185261817</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.661493859803493</v>
+        <v>-4.728392070636991</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.123022301524307</v>
+        <v>-4.999543526683723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.462944664611087</v>
+        <v>-4.425094135684062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2794206097197525</v>
+        <v>-0.02215821127253942</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.520975793675814</v>
+        <v>-3.172046293971055</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08130558849490718</v>
+        <v>-0.2442296503975538</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.463234488165889</v>
+        <v>-1.241735594781388</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.33367127908596</v>
+        <v>-3.404349062888693</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.118365511003042</v>
+        <v>-1.092650824607364</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.5787926992386588</v>
+        <v>-0.8207453323193673</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.133375188790781</v>
+        <v>-0.8947254870603636</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.2397712474447316</v>
+        <v>-0.03863546292605839</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.858680077119109</v>
+        <v>5.008199330363474</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.085158790721144</v>
+        <v>1.777362224062962</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.782005028184004</v>
+        <v>4.842589577659786</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.965311672173852</v>
+        <v>2.038886176798</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.05849328200683464</v>
+        <v>0.1143853396286387</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.221572514308572</v>
+        <v>2.184702572767876</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.4670900751462259</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3372785286866348</v>
+        <v>-0.3372785286866349</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2362366698066768</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6001095485684286</v>
+        <v>-0.6271012414649413</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6608113650892545</v>
+        <v>-0.6497204951238051</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5629897251389838</v>
+        <v>-0.5785861747683573</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0223851409212103</v>
+        <v>-0.005499117053993299</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3115707810162683</v>
+        <v>-0.2825085886681869</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00405708662990981</v>
+        <v>-0.027978531841075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1532649887272406</v>
+        <v>-0.1294627878876918</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3515712094246878</v>
+        <v>-0.3652194382070871</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1176887830300288</v>
+        <v>-0.1171741041782395</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.07983695953904633</v>
+        <v>-0.1386497189764972</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1961346770376352</v>
+        <v>-0.1512192662267758</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.02579040322776568</v>
+        <v>0.01680068540857566</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5649154432728302</v>
+        <v>0.5577326884770728</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2358150191508797</v>
+        <v>0.1934965700207823</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5346030006106984</v>
+        <v>0.5425060816560511</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2475385667416283</v>
+        <v>0.2624368763861896</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.003282760912223878</v>
+        <v>0.01500188773354856</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2764182865832215</v>
+        <v>0.2773858017338095</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6667930964260119</v>
+        <v>-0.6787621146741305</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.027279902524195</v>
+        <v>-1.052661548425617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3332451769876564</v>
+        <v>-0.2011493596393776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7818851212290874</v>
+        <v>-0.7938899673622157</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7111811021959998</v>
+        <v>-0.6445281011689089</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8666055685440371</v>
+        <v>0.8689023345126273</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5270607227885207</v>
+        <v>-0.5206220178217114</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6624870437943652</v>
+        <v>-0.6778528458761413</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6209750057793465</v>
+        <v>0.5301682781329223</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8563349494229171</v>
+        <v>0.8993157204647136</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3771491998370992</v>
+        <v>0.3192703107282195</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.239913323239168</v>
+        <v>1.293062737553691</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.040723834079925</v>
+        <v>1.042122030119434</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.103591464414523</v>
+        <v>1.189187209511507</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.699725309463574</v>
+        <v>2.772051725786729</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.673841748659555</v>
+        <v>0.7086624228343469</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4691939599786843</v>
+        <v>0.4378305073162957</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.804259175694916</v>
+        <v>1.797641789574558</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.06212108383136071</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8241641788227422</v>
+        <v>0.8241641788227426</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4389579064047586</v>
+        <v>-0.4392065896572456</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.649101187817125</v>
+        <v>-0.6486982914531286</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2230025810001865</v>
+        <v>-0.1541685693590378</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3900919800511779</v>
+        <v>-0.3703975912043241</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3370412879649659</v>
+        <v>-0.3157746904764226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3587632367728185</v>
+        <v>0.3507074062922243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3189656404442596</v>
+        <v>-0.3037265238098491</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.367919323424159</v>
+        <v>-0.3850200086209981</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3449788188628148</v>
+        <v>0.2785519404139741</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.071793811269383</v>
+        <v>1.187423378599001</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5456549776253584</v>
+        <v>0.4641591438751508</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.536828074631352</v>
+        <v>1.56549215972879</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8872701797831368</v>
+        <v>0.8414629864420778</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8429452659206613</v>
+        <v>0.9680579076604745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.257015649695884</v>
+        <v>2.417708492376351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6297241919718681</v>
+        <v>0.6478991347499421</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4205723543535951</v>
+        <v>0.3818862136657746</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.576108769594381</v>
+        <v>1.541270049330055</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.166341546476361</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.9827329864033649</v>
+        <v>-0.9827329864033651</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.9502250457450725</v>
@@ -1092,7 +1092,7 @@
         <v>-1.34347916342666</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.02427143482647449</v>
+        <v>-0.02427143482647415</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.292454042032291</v>
+        <v>-1.186186982059156</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.734824869313829</v>
+        <v>-2.619160551402755</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.446202273139316</v>
+        <v>-2.601439125456886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.812601042019343</v>
+        <v>-2.82294787941954</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.500775129459628</v>
+        <v>-3.72717175402357</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.206761434591844</v>
+        <v>-1.194396845686056</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.590707083188266</v>
+        <v>-1.428116358362739</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.603195260423073</v>
+        <v>-2.359231831133472</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.240986916291156</v>
+        <v>-1.190916487320111</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.206943870968514</v>
+        <v>2.314273805894269</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3522768574366039</v>
+        <v>-0.3473602669267459</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1594654918228311</v>
+        <v>-0.2276194889545686</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8235599077630374</v>
+        <v>0.8465917388975641</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.05454573958722377</v>
+        <v>-0.1563747205684624</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.615494556502744</v>
+        <v>2.575219378022774</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9464412210323961</v>
+        <v>1.026065929628611</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.5713158898565696</v>
+        <v>-0.4564469808012837</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8761147276439687</v>
+        <v>0.943711652405649</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-1</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.8425773645569803</v>
+        <v>-0.8425773645569804</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.399889083996415</v>
@@ -1197,7 +1197,7 @@
         <v>-0.7778629422848451</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.01405295312466299</v>
+        <v>-0.01405295312466279</v>
       </c>
     </row>
     <row r="20">
@@ -1208,27 +1208,27 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8003279122484223</v>
+        <v>-0.7549733920803451</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.8073158633321939</v>
+        <v>-0.8272952759842147</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9219863261552567</v>
+        <v>-0.9210045288657128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3466205466871264</v>
+        <v>-0.369450558498426</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6624104134097618</v>
+        <v>-0.6237744453929828</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.9537786018401997</v>
+        <v>-0.945872450641689</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4869121274055974</v>
+        <v>-0.4753389323636545</v>
       </c>
     </row>
     <row r="21">
@@ -1239,27 +1239,27 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.492974648601923</v>
+        <v>5.89692666562568</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>0.7963115885720969</v>
+        <v>0.8363793232015178</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4487232892282991</v>
+        <v>0.1328951222222604</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.014525872694039</v>
+        <v>1.851244133264519</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9311132995958389</v>
+        <v>0.9193286897033685</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3128494321647776</v>
+        <v>-0.2944413677300524</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7935333760894633</v>
+        <v>0.9558412468469638</v>
       </c>
     </row>
     <row r="22">
@@ -1289,7 +1289,7 @@
         <v>-1.266544110506027</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3429437609838382</v>
+        <v>0.3429437609838388</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.02955419750464497</v>
@@ -1298,7 +1298,7 @@
         <v>-1.421782816456307</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.3144355141251387</v>
+        <v>-0.3144355141251394</v>
       </c>
     </row>
     <row r="23">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.59774887363242</v>
+        <v>-1.604702272567506</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.385605763835339</v>
+        <v>-2.43392770377048</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.72945905060749</v>
+        <v>-1.761060169164722</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3417104642579621</v>
+        <v>-0.3936263660045823</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.389542429967529</v>
+        <v>-2.232099304344149</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6413978342272852</v>
+        <v>-0.6360894108808643</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7452323617177784</v>
+        <v>-0.687650470612488</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.04613644585866</v>
+        <v>-2.036863442453236</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.935346547420386</v>
+        <v>-0.9484450609759619</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.05960203795845331</v>
+        <v>-0.0791906024012011</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.912737960874512</v>
+        <v>-0.97923246202437</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.322957166834613</v>
+        <v>-0.3418487151397715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.795085472973719</v>
+        <v>1.79468949693304</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3095452384974779</v>
+        <v>-0.2484899968175993</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.341050780194464</v>
+        <v>1.338892192255489</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6768825370620342</v>
+        <v>0.6662251581079721</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.8043646105353115</v>
+        <v>-0.7960482724382408</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2472686049714767</v>
+        <v>0.2972010145485731</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1394,7 @@
         <v>-0.2495105710834557</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06756029493390348</v>
+        <v>0.06756029493390361</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.007370953309820844</v>
@@ -1403,7 +1403,7 @@
         <v>-0.3545991988162737</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.0784216689761799</v>
+        <v>-0.07842166897618008</v>
       </c>
     </row>
     <row r="26">
@@ -1414,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4741264517508287</v>
+        <v>-0.4723083797481018</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6946828715672393</v>
+        <v>-0.6961152409949314</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5219694667155131</v>
+        <v>-0.5290996720907895</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.06277758239459501</v>
+        <v>-0.0708430192582096</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4099409281302672</v>
+        <v>-0.4026316624498758</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1104515791799603</v>
+        <v>-0.1098273631499962</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1666871877642705</v>
+        <v>-0.1605235477724907</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4691705803255426</v>
+        <v>-0.466141035987518</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2121496340749272</v>
+        <v>-0.2153153709479244</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.01327820102514491</v>
+        <v>-0.02052171634327815</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3506654382438746</v>
+        <v>-0.3758191801113022</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1341117545926757</v>
+        <v>-0.1375265316199414</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.404354892766324</v>
+        <v>0.407670874570204</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.06402464387577485</v>
+        <v>-0.0549342061017463</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2964311522703226</v>
+        <v>0.3040088161289412</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1854563217030039</v>
+        <v>0.1822986419575919</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.214294484285404</v>
+        <v>-0.2156523321058492</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.06639639386411833</v>
+        <v>0.0869184570352951</v>
       </c>
     </row>
     <row r="28">
